--- a/123.xlsx
+++ b/123.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pony/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D66404-DFF8-7744-88A9-40C2F79504F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AB7C81-48C9-9B40-AC82-3C8B0830D70B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2868,14 +2866,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AG238"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" customWidth="1"/>
+    <col min="21" max="21" width="27" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" customWidth="1"/>
+    <col min="25" max="25" width="28.83203125" customWidth="1"/>
     <col min="29" max="29" width="16.5" customWidth="1"/>
     <col min="30" max="30" width="12.5" customWidth="1"/>
   </cols>
@@ -26681,31 +26683,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>